--- a/out.xlsx
+++ b/out.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:J4"/>
+  <dimension ref="B1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -353,15 +353,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1"/>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>序号</t>
-        </is>
-      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>姓名</t>
+          <t>身高</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -369,136 +365,153 @@
           <t>身高</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>体重</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>小学</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>中学</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>高中</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>大学</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>硕士</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>博士</t>
-        </is>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>张三</t>
-        </is>
+      <c r="B3" t="n">
+        <v>125</v>
       </c>
       <c r="C3" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="n">
+        <v>126</v>
+      </c>
+      <c r="C4" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="n">
+        <v>127</v>
+      </c>
+      <c r="C5" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="n">
+        <v>128</v>
+      </c>
+      <c r="C6" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="n">
+        <v>129</v>
+      </c>
+      <c r="C7" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="n">
+        <v>130</v>
+      </c>
+      <c r="C8" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="n">
+        <v>131</v>
+      </c>
+      <c r="C9" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="n">
+        <v>132</v>
+      </c>
+      <c r="C10" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="n">
+        <v>133</v>
+      </c>
+      <c r="C11" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="n">
+        <v>134</v>
+      </c>
+      <c r="C12" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="n">
+        <v>135</v>
+      </c>
+      <c r="C13" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="n">
+        <v>136</v>
+      </c>
+      <c r="C14" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="n">
+        <v>137</v>
+      </c>
+      <c r="C15" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="n">
+        <v>138</v>
+      </c>
+      <c r="C16" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="n">
+        <v>139</v>
+      </c>
+      <c r="C17" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="n">
+        <v>140</v>
+      </c>
+      <c r="C18" t="n">
         <v>125</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>初中</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>王庄小学</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>王庄中学</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>王庄第一中学</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>王庄大学</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>李屯大学</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>李屯研究院</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>王麻子</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>110</v>
-      </c>
-      <c r="D4" t="n">
-        <v>200</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>赵庄小学</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>王庄中学</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>赵庄小学高中部</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>剑桥大学</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>牛津大学</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>赵庄研究院</t>
-        </is>
-      </c>
-    </row>
+    </row>
+    <row r="19">
+      <c r="B19" t="n">
+        <v>141</v>
+      </c>
+      <c r="C19" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="n">
+        <v>142</v>
+      </c>
+      <c r="C20" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21"/>
+    <row r="22"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
